--- a/data_2.xlsx
+++ b/data_2.xlsx
@@ -118,7 +118,7 @@
         <v>4.1380904398463425</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04496639421257019</v>
+        <v>0.16064098337654292</v>
       </c>
       <c r="F2" t="n">
         <v>0.04994373673174336</v>
@@ -138,7 +138,7 @@
         <v>7.973855332208663</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09010272115462942</v>
+        <v>0.32188904591188905</v>
       </c>
       <c r="F3" t="n">
         <v>0.2828987290392257</v>
@@ -158,7 +158,7 @@
         <v>9.355576092850459</v>
       </c>
       <c r="E4" t="n">
-        <v>0.10725648642163053</v>
+        <v>0.38317031538781976</v>
       </c>
       <c r="F4" t="n">
         <v>0.667157534229031</v>

--- a/data_2.xlsx
+++ b/data_2.xlsx
@@ -26,7 +26,7 @@
     <t>phi</t>
   </si>
   <si>
-    <t>alfa02</t>
+    <t>alfa</t>
   </si>
   <si>
     <t>AGR</t>

--- a/data_2.xlsx
+++ b/data_2.xlsx
@@ -109,16 +109,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9194571684055887</v>
+        <v>0.9230265927732803</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1302921792493155</v>
+        <v>0.13286246842645374</v>
       </c>
       <c r="D2" t="n">
-        <v>4.1380904398463425</v>
+        <v>4.201387446491908</v>
       </c>
       <c r="E2" t="n">
-        <v>0.16064098337654292</v>
+        <v>0.1632014500760331</v>
       </c>
       <c r="F2" t="n">
         <v>0.04994373673174336</v>
@@ -132,7 +132,7 @@
         <v>1.6225625340382845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25243386981280524</v>
+        <v>0.25168783990708016</v>
       </c>
       <c r="D3" t="n">
         <v>7.973855332208663</v>
@@ -152,7 +152,7 @@
         <v>1.7265336986944988</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6172739509378793</v>
+        <v>0.6154496916664661</v>
       </c>
       <c r="D4" t="n">
         <v>9.355576092850459</v>
